--- a/采购清单/智能物流搬运机器人清单.xlsx
+++ b/采购清单/智能物流搬运机器人清单.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop\Doing\Project6-gongxun\采购清单\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38553F33-3226-48FF-B0E1-FBC98824DC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974C714E-DFD1-4F7A-8569-9C58D92DA7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>基础材料</t>
   </si>
@@ -129,6 +129,36 @@
   </si>
   <si>
     <t>机械臂驱动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42步进电机短轴 轴长10 机身48 42步进电机 圆形轴 42减速机电机-淘宝网</t>
+  </si>
+  <si>
+    <t>42步进电机短轴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42步进电机短轴行星减速器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂3D打印件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/25kg金属数字舵机伺服大扭力机器人云台舵机遥控模型车模航模-淘宝网</t>
+  </si>
+  <si>
+    <t>25kg金属数字舵机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂爪子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他各类零件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -690,11 +720,11 @@
         <v>31</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -724,41 +754,113 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <f>PRODUCT(B10:C10)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <f>PRODUCT(B11:C11)</f>
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <f>PRODUCT(B12:C12)</f>
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4">
+        <v>200</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <f>PRODUCT(B13:C13)</f>
+        <v>200</v>
+      </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
+        <v>300</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <f>PRODUCT(B14:C14)</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="4">
-        <f>SUM(D3:D11)</f>
-        <v>1352</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="4">
+        <f>SUM(D3:D14)</f>
+        <v>2009</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -775,6 +877,7 @@
     <row r="29" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -785,6 +888,9 @@
     <hyperlink ref="E8" r:id="rId5" display="https://item.taobao.com/item.htm?id=682797640293&amp;pisk=faTmIX9YXnSbdyycO0bjjIN5aAi-l-_1tdUOBNBZ4TW76dnX6RfMBBWYDCWOSdvMItIZhZLMEdJgWnLAkGuNe1qagOSa4_5OsRSwWOLgGUv3WrHjcCzGWNkKp23pGIQ17vh4U6mQh6fa7VBV_7RNLLPrp23pZzYmdFDpknYkQMfO7sSNQ_lls1wV7iSNabfN6lP40dRyuSz-UHy6kjjhK-KdmxWmIM6egtRvMU78p9AVWP4GnssmDIWu7P8kVJgPBtoQwO_AhLCDC2afuGxB61vmorJMOU9lapugJtRW9HIXu2Z1xZW5jE73_qRlotjeoKN07pRk_HIkyXuCoZW2XZOTtxdkoKdXrCFa4ZbvqMYc8gz74kuJyP1r6Ur_fi55Z9nrnEFBgJ7YEbcuYfsVNs6KZbq_fi55Z9hoZku10_1fp&amp;spm=a1z10.5-c-s.w4002-23494047132.10.628a6446lO3Teh" xr:uid="{E7DB9D11-79B1-4944-A009-4C9FF594729E}"/>
     <hyperlink ref="E9" r:id="rId6" display="https://item.taobao.com/item.htm?id=673302946671&amp;pisk=fP0ZI6qHVFLNEnp1VRz4aFsJz7UT5zp5jqwbijc01R2Gcqaq0YDk6Za_1DPmhvdv6PG03xkQpVOThCBq3jlaj5V0iWf3aSPGj-ccgSDQSon_hRw4ujHyOLTWPfhTkovWFUwZe_Ybytjcot_hxSX2ZBrMPfhTH1WDNDY53FeCziPmnlq3tSy3iZqmnyq3NJbgiSjM-BPvy7c55njbqLcuKmww2hSF2JyFoa58_lXi_i_AkgPgX8q3dZVI85raEf0TO3Z8t2gUVk1Xsyc-AAVUzesgrXomU0DvVMUZicDYYApdYJinAj20x__xToyZxVqFiZcn9-qE0AJNXRmsLuF3xs88OYwn6VmeM9ciFRzgtkTkaXqc4AWYtdn-kcWc0lVLT8OeTsTSglnFTFgVDiEtvWyW6CIADlVLT8OeTiIYXyFUFCdO.&amp;spm=a1z10.5-c-s.w4002-23494047132.18.43cb2d7ejERehc&amp;skuId=5032954871243" xr:uid="{2D332967-37B4-451B-A2A2-64333F6065E6}"/>
     <hyperlink ref="E5" r:id="rId7" display="https://item.taobao.com/item.htm?id=814954787248&amp;pisk=fOb6mz2sVAD_Y4tQLGFeVAPzSdLfCOazfjOAZs3ZMFL9Hj6dMIh9kELKvQOoXnp4jttf39xA7F5NdfbCFquaIlfxlE8YU8zzz1fwoEeydgSBEfA2MVnx3npd9t4XyQazz1fBUNWdlz7aSMtwlhh-VlgZeXCQd23IxZuWdi2i0m7B9-vR1HdHTwtWXLKpCqIFRCt6e1QMcz029w7B4Hl4LeClYOdBPyo9y6sAFgB04DY1MGBDAO2nApSdYspvvbucOn91vNKIMqCdtKKCcOwsjdINd3ApvjakTTJdsNIQivCOUdT99Hz8N6KAYNxl7J36ygfw7iB04DY1MGLC4puyFdjZcXtolB9zOWimmCTN2EoAYD3MXBAFzWNICmx9tB9zOWimmhdHT3PQOAic.&amp;spm=a21xtw.29178619.product_shelf.3.5c667fe0HKEkDz&amp;skuId=5681498675798" xr:uid="{5FFE7AE6-8971-4564-B61C-ACB3646BB366}"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://item.taobao.com/item.htm?_u=k3q1ufmgbf92&amp;id=787572964391&amp;skuId=5546860231326&amp;spm=a1z09.2.0.0.33c82e8dxeBVHR" xr:uid="{02A6F9B0-ED13-4801-BBC9-623D26A078BA}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://item.taobao.com/item.htm?_u=k3q1ufmgbf92&amp;id=787572964391&amp;skuId=5546860231329&amp;spm=a1z09.2.0.0.33c82e8dxeBVHR" xr:uid="{9583EF1B-1165-40CB-AB28-0B09D3C3C1A7}"/>
+    <hyperlink ref="E12" r:id="rId10" display="https://item.taobao.com/item.htm?_u=k3q1ufmg0ed7&amp;id=749621761805&amp;spm=a1z09.2.0.0.33c82e8dxeBVHR" xr:uid="{C28D5A9A-8F05-439D-AB1C-A71C34DB0CF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
